--- a/data/data_monitoreo_malingas.xlsx
+++ b/data/data_monitoreo_malingas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,51 +448,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CARREÑO PALACIOS KATHERINE DE LOS MILAGROS</t>
+          <t>URRIOLA ARISMENDIZ INGRID MARYURI</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AGURTO ORDINOLA LISBET JAQUELIN</t>
+          <t>ALAMA NIMA CLARITZA MABEL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MANUEL LEUNARDO PRADO BAILON</t>
+          <t>AGURTO ORDINOLA LISBET JAQUELIN</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ALBIRENA GARCIA ANGEELO ALONSO</t>
+          <t>MANUEL LEUNARDO PRADO BAILON</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>URRIOLA ARISMENDIZ INGRID MARYURI</t>
+          <t>ALBIRENA GARCIA ANGEELO ALONSO</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -502,17 +502,17 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ALAMA NIMA CLARITZA MABEL</t>
+          <t>CORDOVA CARMEN ANGIE NATALLY</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
@@ -522,17 +522,17 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CORDOVA CARMEN ANGIE NATALLY</t>
+          <t>JUAREZ CARMEN PIERRE ALEXANDER</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,57 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>VEGA ROBLEDO FERNANDO ERNESTO</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ATOCHE PALACIOS LUIS ANGEL</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CARREÑO PALACIOS KATHERINE DE LOS MILAGROS</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>BERNAOLA CARMEN ZUMIKO YASHURY</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>61097774</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_monitoreo_malingas.xlsx
+++ b/data/data_monitoreo_malingas.xlsx
@@ -448,71 +448,71 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>URRIOLA ARISMENDIZ INGRID MARYURI</t>
+          <t>ALBIRENA GARCIA ANGEELO ALONSO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>31</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ALAMA NIMA CLARITZA MABEL</t>
+          <t>MANUEL LEUNARDO PRADO BAILON</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AGURTO ORDINOLA LISBET JAQUELIN</t>
+          <t>ALAMA NIMA CLARITZA MABEL</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MANUEL LEUNARDO PRADO BAILON</t>
+          <t>URRIOLA ARISMENDIZ INGRID MARYURI</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>29</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ALBIRENA GARCIA ANGEELO ALONSO</t>
+          <t>CORDOVA CARMEN ANGIE NATALLY</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MARYURI OJEDA VALLE</t>
+          <t>AGURTO ORDINOLA LISBET JAQUELIN</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CORDOVA CARMEN ANGIE NATALLY</t>
+          <t>VEGA ROBLEDO FERNANDO ERNESTO</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
@@ -522,57 +522,57 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>JUAREZ CARMEN PIERRE ALEXANDER</t>
+          <t>MARYURI OJEDA VALLE</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RUIDIAS FRIAS MELISSA VICTORIA</t>
+          <t>JUAREZ CARMEN PIERRE ALEXANDER</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>VEGA ROBLEDO FERNANDO ERNESTO</t>
+          <t>ATOCHE PALACIOS LUIS ANGEL</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ATOCHE PALACIOS LUIS ANGEL</t>
+          <t>CARREÑO PALACIOS KATHERINE DE LOS MILAGROS</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CARREÑO PALACIOS KATHERINE DE LOS MILAGROS</t>
+          <t>RUIDIAS FRIAS MELISSA VICTORIA</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16">

--- a/data/data_monitoreo_malingas.xlsx
+++ b/data/data_monitoreo_malingas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7">
@@ -502,37 +502,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>VEGA ROBLEDO FERNANDO ERNESTO</t>
+          <t>CARREÑO PALACIOS KATHERINE DE LOS MILAGROS</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ROMAN GALECIO MARITZA DEL PILAR</t>
+          <t>MARYURI OJEDA VALLE</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MARYURI OJEDA VALLE</t>
+          <t>VEGA ROBLEDO FERNANDO ERNESTO</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12">
@@ -552,47 +552,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CARREÑO PALACIOS KATHERINE DE LOS MILAGROS</t>
+          <t>ROMAN GALECIO MARITZA DEL PILAR</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>69</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RUIDIAS FRIAS MELISSA VICTORIA</t>
+          <t>BERNAOLA CARMEN ZUMIKO YASHURY</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BERNAOLA CARMEN ZUMIKO YASHURY</t>
+          <t>RUIDIAS FRIAS MELISSA VICTORIA</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>61097774</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_monitoreo_malingas.xlsx
+++ b/data/data_monitoreo_malingas.xlsx
@@ -458,121 +458,121 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MANUEL LEUNARDO PRADO BAILON</t>
+          <t>ALAMA NIMA CLARITZA MABEL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ALAMA NIMA CLARITZA MABEL</t>
+          <t>MANUEL LEUNARDO PRADO BAILON</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>URRIOLA ARISMENDIZ INGRID MARYURI</t>
+          <t>MARYURI OJEDA VALLE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>110</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CORDOVA CARMEN ANGIE NATALLY</t>
+          <t>URRIOLA ARISMENDIZ INGRID MARYURI</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>AGURTO ORDINOLA LISBET JAQUELIN</t>
+          <t>CORDOVA CARMEN ANGIE NATALLY</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CARREÑO PALACIOS KATHERINE DE LOS MILAGROS</t>
+          <t>AGURTO ORDINOLA LISBET JAQUELIN</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MARYURI OJEDA VALLE</t>
+          <t>ROMAN GALECIO MARITZA DEL PILAR</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>VEGA ROBLEDO FERNANDO ERNESTO</t>
+          <t>CARREÑO PALACIOS KATHERINE DE LOS MILAGROS</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>JUAREZ CARMEN PIERRE ALEXANDER</t>
+          <t>VEGA ROBLEDO FERNANDO ERNESTO</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ATOCHE PALACIOS LUIS ANGEL</t>
+          <t>BERNAOLA CARMEN ZUMIKO YASHURY</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ROMAN GALECIO MARITZA DEL PILAR</t>
+          <t>JUAREZ CARMEN PIERRE ALEXANDER</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BERNAOLA CARMEN ZUMIKO YASHURY</t>
+          <t>ATOCHE PALACIOS LUIS ANGEL</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_monitoreo_malingas.xlsx
+++ b/data/data_monitoreo_malingas.xlsx
@@ -452,87 +452,87 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ALAMA NIMA CLARITZA MABEL</t>
+          <t>MANUEL LEUNARDO PRADO BAILON</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MANUEL LEUNARDO PRADO BAILON</t>
+          <t>URRIOLA ARISMENDIZ INGRID MARYURI</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MARYURI OJEDA VALLE</t>
+          <t>ALAMA NIMA CLARITZA MABEL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>URRIOLA ARISMENDIZ INGRID MARYURI</t>
+          <t>CORDOVA CARMEN ANGIE NATALLY</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CORDOVA CARMEN ANGIE NATALLY</t>
+          <t>MARYURI OJEDA VALLE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AGURTO ORDINOLA LISBET JAQUELIN</t>
+          <t>ATOCHE PALACIOS LUIS ANGEL</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>104</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ROMAN GALECIO MARITZA DEL PILAR</t>
+          <t>AGURTO ORDINOLA LISBET JAQUELIN</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CARREÑO PALACIOS KATHERINE DE LOS MILAGROS</t>
+          <t>JUAREZ CARMEN PIERRE ALEXANDER</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
@@ -542,47 +542,47 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>96</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BERNAOLA CARMEN ZUMIKO YASHURY</t>
+          <t>RUIDIAS FRIAS MELISSA VICTORIA</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>JUAREZ CARMEN PIERRE ALEXANDER</t>
+          <t>CARREÑO PALACIOS KATHERINE DE LOS MILAGROS</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ATOCHE PALACIOS LUIS ANGEL</t>
+          <t>ROMAN GALECIO MARITZA DEL PILAR</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RUIDIAS FRIAS MELISSA VICTORIA</t>
+          <t>BERNAOLA CARMEN ZUMIKO YASHURY</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_monitoreo_malingas.xlsx
+++ b/data/data_monitoreo_malingas.xlsx
@@ -452,27 +452,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>158</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MANUEL LEUNARDO PRADO BAILON</t>
+          <t>URRIOLA ARISMENDIZ INGRID MARYURI</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>URRIOLA ARISMENDIZ INGRID MARYURI</t>
+          <t>MARYURI OJEDA VALLE</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>138</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>136</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6">
@@ -492,47 +492,47 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>134</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MARYURI OJEDA VALLE</t>
+          <t>ATOCHE PALACIOS LUIS ANGEL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>127</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ATOCHE PALACIOS LUIS ANGEL</t>
+          <t>AGURTO ORDINOLA LISBET JAQUELIN</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>125</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AGURTO ORDINOLA LISBET JAQUELIN</t>
+          <t>MANUEL LEUNARDO PRADO BAILON</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>119</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>JUAREZ CARMEN PIERRE ALEXANDER</t>
+          <t>RUIDIAS FRIAS MELISSA VICTORIA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>111</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11">
@@ -542,47 +542,47 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>111</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RUIDIAS FRIAS MELISSA VICTORIA</t>
+          <t>JUAREZ CARMEN PIERRE ALEXANDER</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>104</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CARREÑO PALACIOS KATHERINE DE LOS MILAGROS</t>
+          <t>ROMAN GALECIO MARITZA DEL PILAR</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ROMAN GALECIO MARITZA DEL PILAR</t>
+          <t>BERNAOLA CARMEN ZUMIKO YASHURY</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>100</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BERNAOLA CARMEN ZUMIKO YASHURY</t>
+          <t>CARREÑO PALACIOS KATHERINE DE LOS MILAGROS</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_monitoreo_malingas.xlsx
+++ b/data/data_monitoreo_malingas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3">
@@ -462,37 +462,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MARYURI OJEDA VALLE</t>
+          <t>MANUEL LEUNARDO PRADO BAILON</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>160</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ALAMA NIMA CLARITZA MABEL</t>
+          <t>CORDOVA CARMEN ANGIE NATALLY</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>157</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CORDOVA CARMEN ANGIE NATALLY</t>
+          <t>MARYURI OJEDA VALLE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>156</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7">
@@ -502,27 +502,27 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>155</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AGURTO ORDINOLA LISBET JAQUELIN</t>
+          <t>ALAMA NIMA CLARITZA MABEL</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>149</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MANUEL LEUNARDO PRADO BAILON</t>
+          <t>AGURTO ORDINOLA LISBET JAQUELIN</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>147</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>139</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>136</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>135</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,17 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>100</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PIÑIN MACHUCA GIANCARLO</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
